--- a/templates/EIR.xlsx
+++ b/templates/EIR.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/TRABALHO/CERTI/BIM CREA SC/Workshop_IDS/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/BIM/CURSOS/OPEN BIM ACADEMY/WORKSHOPS/BIM CREA SC/Workshop_IDS/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:1_{BD435DAA-C75B-4677-801A-B0C6749B47D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67DC6C8-5495-4ECF-9D9B-C3F1BA453C19}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{BD435DAA-C75B-4677-801A-B0C6749B47D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD4C80D-554C-4E51-A9BD-F80C5114ACA0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A4193517-5033-48D6-9A58-2691097C0962}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{A4193517-5033-48D6-9A58-2691097C0962}"/>
   </bookViews>
   <sheets>
     <sheet name="FOLHA DE ROSTO" sheetId="1" r:id="rId1"/>
     <sheet name="REQUISITOS" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">REQUISITOS!$B$1:$I$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">REQUISITOS!$B$1:$I$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>Data</t>
   </si>
@@ -243,45 +243,15 @@
     <t>Classificação IFC</t>
   </si>
   <si>
-    <t>IfcProject.Name</t>
-  </si>
-  <si>
-    <t>IfcProject.Description</t>
-  </si>
-  <si>
-    <t>IfcOrganization.Name</t>
-  </si>
-  <si>
     <t>IfcText</t>
   </si>
   <si>
-    <t>IfcPerson.Identification</t>
-  </si>
-  <si>
     <t>IfcIdentifier</t>
   </si>
   <si>
-    <t>IfcSite.Name</t>
-  </si>
-  <si>
-    <t>IfcSite.Adress</t>
-  </si>
-  <si>
     <t>IfcPostalAdress</t>
   </si>
   <si>
-    <t>Qto_SiteBaseQuantities.GrossArea</t>
-  </si>
-  <si>
-    <t>IfcBuilding.Name</t>
-  </si>
-  <si>
-    <t>IfcBuilding.Description</t>
-  </si>
-  <si>
-    <t>Qto_BuildingBaseQuantities.GrossFloorArea</t>
-  </si>
-  <si>
     <t>AMBIENTES</t>
   </si>
   <si>
@@ -303,24 +273,12 @@
     <t>Nome de identificação do espaço</t>
   </si>
   <si>
-    <t>IfcSpace.Name</t>
-  </si>
-  <si>
-    <t>IfcSpace.LongName</t>
-  </si>
-  <si>
     <t>IfcSite</t>
   </si>
   <si>
     <t>IfcBuilding</t>
   </si>
   <si>
-    <t>Qto_SpaceBaseQuantities.GrossFloorArea</t>
-  </si>
-  <si>
-    <t>Pset_SpaceOccupancyRequirements.OccupancyNumber</t>
-  </si>
-  <si>
     <t>IfcCountNumber</t>
   </si>
   <si>
@@ -385,6 +343,57 @@
   </si>
   <si>
     <t>EMISSÃO / REVISÕES</t>
+  </si>
+  <si>
+    <t>Classe IFC</t>
+  </si>
+  <si>
+    <t>data type</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Property Set</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>Qto_SiteBaseQuantities</t>
+  </si>
+  <si>
+    <t>GrossArea</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>GrossFloorArea</t>
+  </si>
+  <si>
+    <t>Qto_BuildingBaseQuantities</t>
+  </si>
+  <si>
+    <t>LongName</t>
+  </si>
+  <si>
+    <t>Pset_SpaceOccupancyRequirements</t>
+  </si>
+  <si>
+    <t>OccupancyNumber</t>
+  </si>
+  <si>
+    <t>Qto_SpaceBaseQuantities</t>
   </si>
 </sst>
 </file>
@@ -502,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -941,6 +950,63 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -949,7 +1015,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,12 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1087,8 +1147,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1111,22 +1193,91 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1138,16 +1289,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1159,15 +1343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1180,218 +1355,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1725,52 +1776,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="C3" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="7" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1785,42 +1836,42 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="106"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="106"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="106"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="106"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="15" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -1837,163 +1888,163 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="109"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="109"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="109"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="111">
+      <c r="B26" s="50">
         <v>0</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="112" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="112"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="111">
+      <c r="B27" s="50">
         <v>1</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="111">
+      <c r="B28" s="50">
         <v>2</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112" t="s">
+      <c r="C28" s="50"/>
+      <c r="D28" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="112"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="111">
+      <c r="B29" s="50">
         <v>3</v>
       </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112" t="s">
+      <c r="C29" s="50"/>
+      <c r="D29" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="112"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="111">
+      <c r="B30" s="50">
         <v>4</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="112" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="113"/>
+      <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="111">
+      <c r="B31" s="50">
         <v>5</v>
       </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="113"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="111">
+      <c r="B32" s="50">
         <v>6</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="112" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="111">
+      <c r="B33" s="50">
         <v>7</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="112"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="111">
+      <c r="B34" s="50">
         <v>8</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="112" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="112"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="2:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
@@ -2034,11 +2085,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EF2172-3EF5-485B-9CA4-CF9BE8F5804A}">
-  <dimension ref="B1:K79"/>
+  <dimension ref="B1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,849 +2102,1006 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="56.28515625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="26" style="8" customWidth="1"/>
+    <col min="10" max="11" width="23.28515625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" style="29" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="26" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="79" t="s">
+    <row r="1" spans="2:14" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
-    </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
-    </row>
-    <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
+    </row>
+    <row r="4" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="101"/>
-    </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="107"/>
+    </row>
+    <row r="5" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="120"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="118"/>
+    </row>
+    <row r="7" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
+    </row>
+    <row r="8" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="32" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="69"/>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="69"/>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="93"/>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
+    </row>
+    <row r="16" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="69"/>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="73"/>
+    </row>
+    <row r="17" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="69"/>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="73"/>
+    </row>
+    <row r="18" spans="2:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="69"/>
+      <c r="C18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="73"/>
+    </row>
+    <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="135"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="69"/>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="136"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="71" t="s">
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="93"/>
+      <c r="C21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="137"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="140"/>
+    </row>
+    <row r="23" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="135"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="69"/>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="136"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="69"/>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="136"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="N25" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="93"/>
+      <c r="C26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="37" t="s">
+      <c r="I26" s="137"/>
+      <c r="J26" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="140"/>
+    </row>
+    <row r="28" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+    </row>
+    <row r="30" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="69"/>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="73"/>
+    </row>
+    <row r="31" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="69"/>
+      <c r="C31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="73"/>
+    </row>
+    <row r="32" spans="2:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="69"/>
+      <c r="C32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="77"/>
+    </row>
+    <row r="33" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="72"/>
-      <c r="C8" s="3" t="s">
+    <row r="34" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="112"/>
+      <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="139"/>
-    </row>
-    <row r="14" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="124"/>
-      <c r="C14" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="132" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="142"/>
-    </row>
-    <row r="15" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="124"/>
-      <c r="C15" s="125" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="142"/>
-    </row>
-    <row r="16" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="124"/>
-      <c r="C16" s="144" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="148"/>
-    </row>
-    <row r="17" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="124"/>
-      <c r="C18" s="125" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="129" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="130"/>
-      <c r="C19" s="131" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="133" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="133" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="134"/>
-      <c r="J19" s="149" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="136" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="124"/>
-      <c r="C22" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="129" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="124"/>
-      <c r="C23" s="125" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="127"/>
-      <c r="J23" s="128" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="129" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="130"/>
-      <c r="C24" s="131" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="132" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="134"/>
-      <c r="J24" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="136" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-    </row>
-    <row r="26" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="65"/>
-    </row>
-    <row r="28" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72"/>
-      <c r="C28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="72"/>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="72"/>
-      <c r="C30" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="78"/>
-    </row>
-    <row r="31" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="75"/>
-      <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="75"/>
-      <c r="C33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="75"/>
-      <c r="C34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="36"/>
+      <c r="K34" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="128"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="112"/>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="133"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="112"/>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="113"/>
+      <c r="C37" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="N37" s="44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="89"/>
+    </row>
+    <row r="39" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="76"/>
-      <c r="C35" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="45" t="s">
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="99"/>
+    </row>
+    <row r="40" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="K35" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="90"/>
-    </row>
-    <row r="37" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
-    </row>
-    <row r="38" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="57"/>
-    </row>
-    <row r="39" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="60"/>
-    </row>
-    <row r="40" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="71" t="s">
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="102"/>
+    </row>
+    <row r="41" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="103"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="105"/>
+    </row>
+    <row r="42" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="65"/>
-    </row>
-    <row r="41" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="72"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="67"/>
-    </row>
-    <row r="42" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="72"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="67"/>
-    </row>
-    <row r="43" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="73"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="78"/>
-    </row>
-    <row r="44" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="68" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="71"/>
+    </row>
+    <row r="43" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="69"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="73"/>
+    </row>
+    <row r="44" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="69"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="130"/>
+      <c r="N44" s="73"/>
+    </row>
+    <row r="45" spans="2:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="93"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="77"/>
+    </row>
+    <row r="46" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="69"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="39"/>
-    </row>
-    <row r="46" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="69"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="39"/>
-    </row>
-    <row r="47" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="69"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="35"/>
+    </row>
+    <row r="47" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="109"/>
       <c r="C47" s="3"/>
       <c r="D47" s="7"/>
       <c r="E47" s="4"/>
@@ -2901,11 +3109,14 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="39"/>
-    </row>
-    <row r="48" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="69"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="37"/>
+    </row>
+    <row r="48" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="109"/>
       <c r="C48" s="3"/>
       <c r="D48" s="7"/>
       <c r="E48" s="4"/>
@@ -2914,10 +3125,13 @@
       <c r="H48" s="4"/>
       <c r="I48" s="12"/>
       <c r="J48" s="38"/>
-      <c r="K48" s="39"/>
-    </row>
-    <row r="49" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="69"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="109"/>
       <c r="C49" s="3"/>
       <c r="D49" s="7"/>
       <c r="E49" s="4"/>
@@ -2925,162 +3139,201 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="39"/>
-    </row>
-    <row r="50" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="69"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="37"/>
+    </row>
+    <row r="50" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="109"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="42"/>
-    </row>
-    <row r="51" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="69"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="37"/>
+    </row>
+    <row r="51" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="109"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="42"/>
-    </row>
-    <row r="52" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="70"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="44"/>
-    </row>
-    <row r="53" spans="2:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="57"/>
-    </row>
-    <row r="55" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="60"/>
-    </row>
-    <row r="56" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="71" t="s">
+      <c r="I51" s="12"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="37"/>
+    </row>
+    <row r="52" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="109"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
+      <c r="N52" s="40"/>
+    </row>
+    <row r="53" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="109"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="40"/>
+    </row>
+    <row r="54" spans="2:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="110"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="42"/>
+    </row>
+    <row r="55" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="102"/>
+    </row>
+    <row r="57" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="103"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="105"/>
+    </row>
+    <row r="58" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="65"/>
-    </row>
-    <row r="57" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="72"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="67"/>
-    </row>
-    <row r="58" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="72"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="67"/>
-    </row>
-    <row r="59" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="73"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="78"/>
-    </row>
-    <row r="60" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="61" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="71"/>
+    </row>
+    <row r="59" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="69"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="73"/>
+    </row>
+    <row r="60" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="69"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="73"/>
+    </row>
+    <row r="61" spans="2:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="93"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="114"/>
+      <c r="N61" s="77"/>
+    </row>
+    <row r="62" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="37"/>
-    </row>
-    <row r="61" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="62"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="39"/>
-    </row>
-    <row r="62" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="62"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="39"/>
-    </row>
-    <row r="63" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="62"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="127"/>
+      <c r="L62" s="127"/>
+      <c r="M62" s="127"/>
+      <c r="N62" s="35"/>
+    </row>
+    <row r="63" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="91"/>
       <c r="C63" s="3"/>
       <c r="D63" s="7"/>
       <c r="E63" s="4"/>
@@ -3088,11 +3341,14 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="39"/>
-    </row>
-    <row r="64" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="62"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="128"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="128"/>
+      <c r="N63" s="37"/>
+    </row>
+    <row r="64" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="91"/>
       <c r="C64" s="3"/>
       <c r="D64" s="7"/>
       <c r="E64" s="4"/>
@@ -3101,10 +3357,13 @@
       <c r="H64" s="4"/>
       <c r="I64" s="12"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="39"/>
-    </row>
-    <row r="65" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="62"/>
+      <c r="K64" s="133"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
+      <c r="N64" s="37"/>
+    </row>
+    <row r="65" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="91"/>
       <c r="C65" s="3"/>
       <c r="D65" s="7"/>
       <c r="E65" s="4"/>
@@ -3112,204 +3371,284 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="39"/>
-    </row>
-    <row r="66" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="62"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="128"/>
+      <c r="M65" s="128"/>
+      <c r="N65" s="37"/>
+    </row>
+    <row r="66" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="91"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="42"/>
-    </row>
-    <row r="67" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="62"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="21"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="37"/>
+    </row>
+    <row r="67" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="91"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="42"/>
-    </row>
-    <row r="68" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="63"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="44"/>
-    </row>
-    <row r="69" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="57"/>
-    </row>
-    <row r="71" spans="2:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="58"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="60"/>
-    </row>
-    <row r="72" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="61" t="s">
+      <c r="I67" s="12"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="128"/>
+      <c r="N67" s="37"/>
+    </row>
+    <row r="68" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="91"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
+      <c r="N68" s="40"/>
+    </row>
+    <row r="69" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="91"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="134"/>
+      <c r="L69" s="134"/>
+      <c r="M69" s="134"/>
+      <c r="N69" s="40"/>
+    </row>
+    <row r="70" spans="2:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="92"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="131"/>
+      <c r="L70" s="131"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="42"/>
+    </row>
+    <row r="71" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="101"/>
+      <c r="J72" s="101"/>
+      <c r="K72" s="101"/>
+      <c r="L72" s="101"/>
+      <c r="M72" s="101"/>
+      <c r="N72" s="102"/>
+    </row>
+    <row r="73" spans="2:14" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="103"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="104"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="104"/>
+      <c r="L73" s="104"/>
+      <c r="M73" s="104"/>
+      <c r="N73" s="105"/>
+    </row>
+    <row r="74" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="37"/>
-    </row>
-    <row r="73" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="62"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="39"/>
-    </row>
-    <row r="74" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="62"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="39"/>
-    </row>
-    <row r="75" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="62"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="127"/>
+      <c r="L74" s="127"/>
+      <c r="M74" s="127"/>
+      <c r="N74" s="35"/>
+    </row>
+    <row r="75" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="91"/>
       <c r="C75" s="3"/>
       <c r="D75" s="7"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="I75" s="12"/>
       <c r="J75" s="38"/>
-      <c r="K75" s="39"/>
-    </row>
-    <row r="76" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="62"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
+      <c r="K75" s="133"/>
+      <c r="L75" s="133"/>
+      <c r="M75" s="133"/>
+      <c r="N75" s="37"/>
+    </row>
+    <row r="76" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="91"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="42"/>
-    </row>
-    <row r="77" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="62"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="128"/>
+      <c r="L76" s="128"/>
+      <c r="M76" s="128"/>
+      <c r="N76" s="37"/>
+    </row>
+    <row r="77" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="91"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="42"/>
-    </row>
-    <row r="78" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="62"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="128"/>
+      <c r="L77" s="128"/>
+      <c r="M77" s="128"/>
+      <c r="N77" s="37"/>
+    </row>
+    <row r="78" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="91"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="42"/>
-    </row>
-    <row r="79" spans="2:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="63"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="44"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="134"/>
+      <c r="L78" s="134"/>
+      <c r="M78" s="134"/>
+      <c r="N78" s="40"/>
+    </row>
+    <row r="79" spans="2:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="91"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="134"/>
+      <c r="L79" s="134"/>
+      <c r="M79" s="134"/>
+      <c r="N79" s="40"/>
+    </row>
+    <row r="80" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="91"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="134"/>
+      <c r="L80" s="134"/>
+      <c r="M80" s="134"/>
+      <c r="N80" s="40"/>
+    </row>
+    <row r="81" spans="2:14" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="92"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="131"/>
+      <c r="L81" s="131"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="F13:I16"/>
-    <mergeCell ref="J13:K16"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B60:B68"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="J27:K30"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J40:K43"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="B71:K71"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="F27:I30"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="F40:I43"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="F56:I59"/>
-    <mergeCell ref="J56:K59"/>
+  <mergeCells count="40">
+    <mergeCell ref="B72:N72"/>
+    <mergeCell ref="B73:N73"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="F29:I32"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="F42:I45"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B57:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="F58:I61"/>
+    <mergeCell ref="J58:N61"/>
+    <mergeCell ref="B38:N38"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B39:N39"/>
+    <mergeCell ref="B40:N40"/>
+    <mergeCell ref="B41:N41"/>
+    <mergeCell ref="J29:N32"/>
+    <mergeCell ref="J42:N45"/>
+    <mergeCell ref="B56:N56"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="F15:I18"/>
+    <mergeCell ref="J15:N18"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3321,7 +3660,7 @@
           <x14:formula1>
             <xm:f>'FOLHA DE ROSTO'!$B$17:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>E7 E8:E10 E13:E19 E21:E24 E27:E30 E31:E35 E40:E52 E56:E61 E62:E68 E72:E79</xm:sqref>
+          <xm:sqref>E9:E12 E15:E21 E23:E26 E29:E37 E42:E54 E58:E70 E74:E81</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
